--- a/OB1_visuals_bar.xlsx
+++ b/OB1_visuals_bar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soowan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soowan/Documents/VSCODE/Pearl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1D3ED7-ECB9-C44F-9895-590FAEF3B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20351DA2-D2AD-3C4A-8A56-367E41B2A7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="3" xr2:uid="{EB8D745C-078E-A347-B5BF-56C1C6DC6998}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{EB8D745C-078E-A347-B5BF-56C1C6DC6998}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1) Coordinate" sheetId="1" r:id="rId1"/>
@@ -39094,8 +39094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EEF62E-0D9F-554B-A714-EC4ABF6052F2}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40014,7 +40014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F1AA-BA6C-E245-ABC3-D7EB0B726C62}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
